--- a/需求分析/即时通讯.xlsx
+++ b/需求分析/即时通讯.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28410" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="更新说明" sheetId="8" r:id="rId1"/>
@@ -197,8 +197,8 @@
 0x00000300 心跳消息
 0x00000400 连接状态返回
 0x00000500 通知信息
-0x00000600 好友列表更新
-0x00000700 名片类消息
+0x00000601 对方同意添加好友
+0x00000602 被好友删除
 0x00000800 消息发送状态</t>
   </si>
   <si>
@@ -233,17 +233,14 @@
 0x00000401 连接成功
 0x00000402 连接失败
 （通知信息）
-0x00000501 下线通知
-（好友列表更新）
-0x00000601 对方同意添加好友
-0x00000602 被好友删除
+0x00000502 收到离线消息
+0x00000503 收到离线请求
 （消息发送状态）
-0x00000801 消息发送信号
 0x00000802 收到消息响应
-0x00000803 通知客户端消息
-0x00000804 客户端收到消息
 0x00000805 返回给客户端的响应
-0x00000806 返回给发送方的响应</t>
+0x00000806 返回给发送方的响应
+0x00000804 客户端收到文本消息
+0x00000807 客户端收到好友请求消息</t>
   </si>
   <si>
     <t>isRead</t>
@@ -323,10 +320,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -370,8 +367,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,7 +384,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,14 +408,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -417,30 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,23 +431,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,7 +475,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,25 +528,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,84 +654,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -658,30 +679,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,6 +701,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -715,6 +742,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,58 +784,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,145 +797,145 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1657,10 +1654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1785,6 +1782,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="26" ht="27" spans="1:5">
+      <c r="A26" s="17">
+        <v>42948</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1797,7 +1811,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1987,7 +2001,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2032,7 +2046,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" ht="114" spans="1:4">
+    <row r="4" ht="213.75" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>54</v>
@@ -2074,7 +2088,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" ht="256.5" spans="1:4">
+    <row r="8" ht="199.5" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>64</v>
